--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA883C1-2A19-4E7B-90DB-A4AA35A4F22D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20F521-0A0C-4989-9C9C-B4699A280A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +468,34 @@
         <v>17654</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>17788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>17852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20F521-0A0C-4989-9C9C-B4699A280A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D645DF2-0375-4BAE-8058-1471555630DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -496,6 +496,20 @@
         <v>17852</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>17866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D645DF2-0375-4BAE-8058-1471555630DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDFAAC-EBCD-4542-8314-FE9FD5F44768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +510,20 @@
         <v>17866</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>17904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDFAAC-EBCD-4542-8314-FE9FD5F44768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221B2D8-483F-48FE-B744-CE6E763935F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,8 +524,22 @@
         <v>17904</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>18012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221B2D8-483F-48FE-B744-CE6E763935F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2394D11-3CE6-4FEE-BDC2-19785D148358}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,20 @@
         <v>18012</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>17935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2394D11-3CE6-4FEE-BDC2-19785D148358}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04D470-0623-499D-A2E7-8C9AD3BF7A76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -552,6 +552,20 @@
         <v>17935</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>17994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04D470-0623-499D-A2E7-8C9AD3BF7A76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2496D2D7-1BFF-41E0-A7F9-A11AF9F14AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +566,34 @@
         <v>17994</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>18323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>18385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2496D2D7-1BFF-41E0-A7F9-A11AF9F14AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65476840-8DBB-4A24-9076-24313F9CF6C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,6 +594,34 @@
         <v>18385</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C15">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>18528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>18849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65476840-8DBB-4A24-9076-24313F9CF6C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABAF72-44CD-41F7-9CDB-D209D011DD32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +622,20 @@
         <v>18849</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>18983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABAF72-44CD-41F7-9CDB-D209D011DD32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4FA28-E9CE-43EE-A4CD-A278B09EC78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +636,34 @@
         <v>18983</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>19228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4FA28-E9CE-43EE-A4CD-A278B09EC78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5AB0C3-86D2-442A-A93B-93E828BDA3E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
+    <workbookView xWindow="4545" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +664,48 @@
         <v>19228</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="C20">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>18863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>18744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="C22">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>18755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5AB0C3-86D2-442A-A93B-93E828BDA3E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF78653-AE81-4D9C-9F54-FDAC18A9C56F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +706,76 @@
         <v>18755</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>18847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>19026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C25">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>19062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C26">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>19338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>19525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF78653-AE81-4D9C-9F54-FDAC18A9C56F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A48279-BC9F-4EBE-8643-085C4EF74D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +776,48 @@
         <v>19525</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>19583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>19603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>19792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A48279-BC9F-4EBE-8643-085C4EF74D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62EFAE-2CD7-4323-A5AC-F6A8C2FC206C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +818,20 @@
         <v>19792</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>19928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62EFAE-2CD7-4323-A5AC-F6A8C2FC206C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B7CB6-9B6F-4A87-963C-D286EFFC1A90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,9 +396,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -832,6 +832,20 @@
         <v>19928</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>20037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B7CB6-9B6F-4A87-963C-D286EFFC1A90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09E416-1898-4488-A13D-BD9729B24A53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +846,20 @@
         <v>20037</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>20382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09E416-1898-4488-A13D-BD9729B24A53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7F9ED-41FF-474E-9385-B24FD4D76908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +860,20 @@
         <v>20382</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C34">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>20337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7F9ED-41FF-474E-9385-B24FD4D76908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8503F-89B0-473B-867D-F0BB6D5376F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,10 +79,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,8 +878,185 @@
         <v>20337</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C35">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>20325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C36">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <v>20579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="C37">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>20585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="C38">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>20644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2058DA18-54EF-4515-AAAF-D8DA7AFEB2FA}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A1:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A34">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8503F-89B0-473B-867D-F0BB6D5376F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D01652-A302-44B4-8585-C89650ECEC1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +932,20 @@
       </c>
       <c r="D38">
         <v>20644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C39">
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <v>21139</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D01652-A302-44B4-8585-C89650ECEC1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E870E-CD54-4BEF-BBF1-E865E4DEE4CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +946,34 @@
       </c>
       <c r="D39">
         <v>21139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C40">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>21484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C41">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>21449</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E870E-CD54-4BEF-BBF1-E865E4DEE4CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524FB56-DE44-4136-9A8C-D8E292FCD11A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
         <v>20037</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43696</v>
       </c>
@@ -864,7 +864,7 @@
         <v>20382</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43696</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20337</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43696</v>
       </c>
@@ -892,7 +892,7 @@
         <v>20325</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43696</v>
       </c>
@@ -906,7 +906,7 @@
         <v>20579</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43696</v>
       </c>
@@ -920,7 +920,7 @@
         <v>20585</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43696</v>
       </c>
@@ -934,7 +934,7 @@
         <v>20644</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43697</v>
       </c>
@@ -948,7 +948,7 @@
         <v>21139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43697</v>
       </c>
@@ -962,7 +962,7 @@
         <v>21484</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43697</v>
       </c>
@@ -974,6 +974,51 @@
       </c>
       <c r="D41">
         <v>21449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>21888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C43">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <v>21920</v>
+      </c>
+      <c r="E43">
+        <v>17413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C44">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>22261</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524FB56-DE44-4136-9A8C-D8E292FCD11A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C493D18-66FD-4002-B41C-A4E4B4786E2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1019,20 @@
       </c>
       <c r="D44">
         <v>22261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C45">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>22443</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C493D18-66FD-4002-B41C-A4E4B4786E2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61588421-005D-48A5-8891-45BC60C70BC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1033,26 @@
       </c>
       <c r="D45">
         <v>22443</v>
+      </c>
+      <c r="E45">
+        <v>17913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="C46">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <v>22297</v>
+      </c>
+      <c r="E46">
+        <v>17891</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61588421-005D-48A5-8891-45BC60C70BC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38485F6A-89AF-44AF-A77C-D422AE4D4603}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,6 +1053,48 @@
       </c>
       <c r="E46">
         <v>17891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C47">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>22409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C48">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>22670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C49">
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <v>22392</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38485F6A-89AF-44AF-A77C-D422AE4D4603}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7DF5C-C7CA-4208-A661-05D97611C550}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1095,20 @@
       </c>
       <c r="D49">
         <v>22392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="C50">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>22485</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7DF5C-C7CA-4208-A661-05D97611C550}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8F999-0E55-4FEE-ADE7-BA4E36141B59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1109,20 @@
       </c>
       <c r="D50">
         <v>22485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C51">
+        <v>74</v>
+      </c>
+      <c r="D51">
+        <v>22658</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8F999-0E55-4FEE-ADE7-BA4E36141B59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74961952-DB7D-4264-A871-A64D3CC6FB1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
         <v>22670</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43698</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>22392</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43698</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>22485</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43698</v>
       </c>
@@ -1123,6 +1123,51 @@
       </c>
       <c r="D51">
         <v>22658</v>
+      </c>
+      <c r="E51">
+        <v>18385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C52">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>22713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C53">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>22834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="C54">
+        <v>74</v>
+      </c>
+      <c r="D54">
+        <v>22750</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74961952-DB7D-4264-A871-A64D3CC6FB1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9A588-D1F8-49A3-8AB9-4A2929D99552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1168,20 @@
       </c>
       <c r="D54">
         <v>22750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C55">
+        <v>72</v>
+      </c>
+      <c r="D55">
+        <v>22744</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9A588-D1F8-49A3-8AB9-4A2929D99552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553078D-C7D1-4B6E-81AE-C7B90FB5EE74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1182,23 @@
       </c>
       <c r="D55">
         <v>22744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="C56">
+        <v>71</v>
+      </c>
+      <c r="D56">
+        <v>22569</v>
+      </c>
+      <c r="E56">
+        <v>18521</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553078D-C7D1-4B6E-81AE-C7B90FB5EE74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA1DF9-FA8E-4D20-A236-4B8F054BC94B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1199,20 @@
       </c>
       <c r="E56">
         <v>18521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>22653</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA1DF9-FA8E-4D20-A236-4B8F054BC94B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E56193-F549-4628-A19D-A1FD20B4BC18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,6 +1213,23 @@
       </c>
       <c r="D57">
         <v>22653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C58">
+        <v>71</v>
+      </c>
+      <c r="D58">
+        <v>22710</v>
+      </c>
+      <c r="E58">
+        <v>18661</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E56193-F549-4628-A19D-A1FD20B4BC18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE98ED-15EA-43D2-B094-7DC95CF9BBA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1230,40 @@
       </c>
       <c r="E58">
         <v>18661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C59">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>22511</v>
+      </c>
+      <c r="E59">
+        <v>18462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="C60">
+        <v>73</v>
+      </c>
+      <c r="D60">
+        <v>22608</v>
+      </c>
+      <c r="E60">
+        <v>18559</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE98ED-15EA-43D2-B094-7DC95CF9BBA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF53C91-865D-446B-A774-97014BEE4779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
@@ -1264,6 +1264,20 @@
       </c>
       <c r="E60">
         <v>18559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="C61">
+        <v>73</v>
+      </c>
+      <c r="D61">
+        <v>22636</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF53C91-865D-446B-A774-97014BEE4779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2210E9-C061-4BBA-AF9D-F70053934059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1278,23 @@
       </c>
       <c r="D61">
         <v>22636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.9277777777777777</v>
+      </c>
+      <c r="C62">
+        <v>73</v>
+      </c>
+      <c r="D62">
+        <v>22750</v>
+      </c>
+      <c r="E62">
+        <v>18595</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Word count.xlsx
+++ b/Comparison/Word count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2210E9-C061-4BBA-AF9D-F70053934059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91626507-BD9D-41FC-A673-8DFA7D77E591}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A438F4-76E6-4718-8920-804AE3072837}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F96CE2-C24A-4465-B4B6-D81433725DCD}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,6 +1295,23 @@
       </c>
       <c r="E62">
         <v>18595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43699</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C63">
+        <v>73</v>
+      </c>
+      <c r="D63">
+        <v>22679</v>
+      </c>
+      <c r="E63">
+        <v>18635</v>
       </c>
     </row>
   </sheetData>
